--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/InsertColumns.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/InsertColumns.xlsx
@@ -425,12 +425,11 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="16" max="16384" width="9.850625" style="1" customWidth="1"/>
+    <x:col min="10" max="16384" width="9.850625" style="1" customWidth="1"/>
     <x:col min="1" max="1" width="9.850625" style="1" customWidth="1"/>
     <x:col min="2" max="2" width="9.850625" style="2" customWidth="1"/>
     <x:col min="3" max="8" width="9.850625" style="1" customWidth="1"/>
     <x:col min="9" max="9" width="9.850625" style="3" customWidth="1"/>
-    <x:col min="10" max="15" width="9.850625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:17">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/InsertColumns.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/InsertColumns.xlsx
@@ -423,13 +423,13 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="10" max="16384" width="9.850625" style="1" customWidth="1"/>
-    <x:col min="1" max="1" width="9.850625" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="9.850625" style="2" customWidth="1"/>
-    <x:col min="3" max="8" width="9.850625" style="1" customWidth="1"/>
-    <x:col min="9" max="9" width="9.850625" style="3" customWidth="1"/>
+    <x:col min="10" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="9.140625" style="2" customWidth="1"/>
+    <x:col min="3" max="8" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="9" max="9" width="9.140625" style="3" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:17">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/InsertColumns.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/InsertColumns.xlsx
@@ -86,7 +86,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="5">
+  <x:cellStyleXfs count="9">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -102,8 +102,20 @@
     <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="5">
+  <x:cellXfs count="9">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -122,6 +134,22 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -423,136 +451,136 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="10" max="16384" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="9.140625" style="2" customWidth="1"/>
-    <x:col min="3" max="8" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="9" max="9" width="9.140625" style="3" customWidth="1"/>
+    <x:col min="1" max="1" width="9.140625" style="5" customWidth="1"/>
+    <x:col min="2" max="2" width="9.140625" style="6" customWidth="1"/>
+    <x:col min="3" max="8" width="9.140625" style="5" customWidth="1"/>
+    <x:col min="9" max="9" width="9.140625" style="7" customWidth="1"/>
+    <x:col min="10" max="16384" width="9.140625" style="5" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:17">
-      <x:c r="A1" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C1" s="1" t="s"/>
-      <x:c r="D1" s="1" t="s"/>
-      <x:c r="E1" s="1" t="s"/>
-      <x:c r="F1" s="1" t="s"/>
-      <x:c r="G1" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H1" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I1" s="1" t="s"/>
-      <x:c r="J1" s="1" t="s"/>
-      <x:c r="K1" s="1" t="s">
+      <x:c r="A1" s="5" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="6" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C1" s="5" t="s"/>
+      <x:c r="D1" s="5" t="s"/>
+      <x:c r="E1" s="5" t="s"/>
+      <x:c r="F1" s="5" t="s"/>
+      <x:c r="G1" s="7" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H1" s="5" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I1" s="5" t="s"/>
+      <x:c r="J1" s="5" t="s"/>
+      <x:c r="K1" s="5" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:17">
-      <x:c r="A2" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B2" s="1" t="s"/>
-      <x:c r="C2" s="1" t="s"/>
-      <x:c r="D2" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E2" s="1" t="s"/>
-      <x:c r="F2" s="1" t="s"/>
-      <x:c r="G2" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H2" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I2" s="1" t="s"/>
-      <x:c r="J2" s="1" t="s"/>
-      <x:c r="K2" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L2" s="1" t="s"/>
-      <x:c r="M2" s="1" t="s"/>
+      <x:c r="A2" s="5" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B2" s="5" t="s"/>
+      <x:c r="C2" s="5" t="s"/>
+      <x:c r="D2" s="6" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E2" s="5" t="s"/>
+      <x:c r="F2" s="5" t="s"/>
+      <x:c r="G2" s="7" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H2" s="5" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I2" s="5" t="s"/>
+      <x:c r="J2" s="5" t="s"/>
+      <x:c r="K2" s="5" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L2" s="5" t="s"/>
+      <x:c r="M2" s="5" t="s"/>
     </x:row>
-    <x:row r="3" spans="1:17" s="4" customFormat="1">
-      <x:c r="A3" s="4" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B3" s="4" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C3" s="4" t="s"/>
-      <x:c r="D3" s="4" t="s"/>
-      <x:c r="E3" s="4" t="s"/>
-      <x:c r="F3" s="4" t="s"/>
-      <x:c r="G3" s="4" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H3" s="4" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I3" s="4" t="s"/>
-      <x:c r="J3" s="4" t="s"/>
-      <x:c r="K3" s="4" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L3" s="4" t="s"/>
-      <x:c r="M3" s="4" t="s"/>
-      <x:c r="N3" s="4" t="s"/>
-      <x:c r="O3" s="4" t="s"/>
+    <x:row r="3" spans="1:17" s="8" customFormat="1">
+      <x:c r="A3" s="8" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B3" s="8" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C3" s="8" t="s"/>
+      <x:c r="D3" s="8" t="s"/>
+      <x:c r="E3" s="8" t="s"/>
+      <x:c r="F3" s="8" t="s"/>
+      <x:c r="G3" s="8" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H3" s="8" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I3" s="8" t="s"/>
+      <x:c r="J3" s="8" t="s"/>
+      <x:c r="K3" s="8" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L3" s="8" t="s"/>
+      <x:c r="M3" s="8" t="s"/>
+      <x:c r="N3" s="8" t="s"/>
+      <x:c r="O3" s="8" t="s"/>
     </x:row>
-    <x:row r="4" spans="1:17" s="4" customFormat="1">
-      <x:c r="A4" s="4" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B4" s="4" t="s"/>
-      <x:c r="C4" s="4" t="s"/>
-      <x:c r="D4" s="4" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E4" s="4" t="s"/>
-      <x:c r="F4" s="4" t="s"/>
-      <x:c r="G4" s="4" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H4" s="4" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I4" s="4" t="s"/>
-      <x:c r="J4" s="4" t="s"/>
-      <x:c r="K4" s="4" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L4" s="4" t="s"/>
-      <x:c r="M4" s="4" t="s"/>
-      <x:c r="N4" s="4" t="s"/>
-      <x:c r="O4" s="4" t="s"/>
-      <x:c r="P4" s="4" t="s"/>
-      <x:c r="Q4" s="4" t="s"/>
+    <x:row r="4" spans="1:17" s="8" customFormat="1">
+      <x:c r="A4" s="8" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B4" s="8" t="s"/>
+      <x:c r="C4" s="8" t="s"/>
+      <x:c r="D4" s="8" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E4" s="8" t="s"/>
+      <x:c r="F4" s="8" t="s"/>
+      <x:c r="G4" s="8" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H4" s="8" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I4" s="8" t="s"/>
+      <x:c r="J4" s="8" t="s"/>
+      <x:c r="K4" s="8" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L4" s="8" t="s"/>
+      <x:c r="M4" s="8" t="s"/>
+      <x:c r="N4" s="8" t="s"/>
+      <x:c r="O4" s="8" t="s"/>
+      <x:c r="P4" s="8" t="s"/>
+      <x:c r="Q4" s="8" t="s"/>
     </x:row>
     <x:row r="5" spans="1:17">
-      <x:c r="A5" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B5" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C5" s="1" t="s"/>
-      <x:c r="D5" s="1" t="s"/>
-      <x:c r="E5" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F5" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G5" s="1" t="s"/>
-      <x:c r="I5" s="1" t="s">
+      <x:c r="A5" s="5" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B5" s="6" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C5" s="5" t="s"/>
+      <x:c r="D5" s="5" t="s"/>
+      <x:c r="E5" s="7" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F5" s="5" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G5" s="5" t="s"/>
+      <x:c r="I5" s="5" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/InsertColumns.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/InsertColumns.xlsx
@@ -86,7 +86,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="9">
+  <x:cellStyleXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -102,20 +102,8 @@
     <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="9">
+  <x:cellXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -134,22 +122,6 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -453,134 +425,130 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.140625" style="5" customWidth="1"/>
-    <x:col min="2" max="2" width="9.140625" style="6" customWidth="1"/>
-    <x:col min="3" max="8" width="9.140625" style="5" customWidth="1"/>
-    <x:col min="9" max="9" width="9.140625" style="7" customWidth="1"/>
-    <x:col min="10" max="16384" width="9.140625" style="5" customWidth="1"/>
+    <x:col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="9.140625" style="2" customWidth="1"/>
+    <x:col min="3" max="8" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="9" max="9" width="9.140625" style="3" customWidth="1"/>
+    <x:col min="10" max="16384" width="9.140625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:17">
-      <x:c r="A1" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="6" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C1" s="5" t="s"/>
-      <x:c r="D1" s="5" t="s"/>
-      <x:c r="E1" s="5" t="s"/>
-      <x:c r="F1" s="5" t="s"/>
-      <x:c r="G1" s="7" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H1" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I1" s="5" t="s"/>
-      <x:c r="J1" s="5" t="s"/>
-      <x:c r="K1" s="5" t="s">
+      <x:c r="A1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C1" s="2" t="s"/>
+      <x:c r="G1" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I1" s="1" t="s"/>
+      <x:c r="J1" s="1" t="s"/>
+      <x:c r="K1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:17">
-      <x:c r="A2" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B2" s="5" t="s"/>
-      <x:c r="C2" s="5" t="s"/>
-      <x:c r="D2" s="6" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E2" s="5" t="s"/>
-      <x:c r="F2" s="5" t="s"/>
-      <x:c r="G2" s="7" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H2" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I2" s="5" t="s"/>
-      <x:c r="J2" s="5" t="s"/>
-      <x:c r="K2" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L2" s="5" t="s"/>
-      <x:c r="M2" s="5" t="s"/>
+      <x:c r="A2" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B2" s="1" t="s"/>
+      <x:c r="C2" s="1" t="s"/>
+      <x:c r="D2" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E2" s="2" t="s"/>
+      <x:c r="F2" s="1" t="s"/>
+      <x:c r="G2" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H2" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I2" s="1" t="s"/>
+      <x:c r="J2" s="1" t="s"/>
+      <x:c r="K2" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L2" s="1" t="s"/>
+      <x:c r="M2" s="1" t="s"/>
     </x:row>
-    <x:row r="3" spans="1:17" s="8" customFormat="1">
-      <x:c r="A3" s="8" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B3" s="8" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C3" s="8" t="s"/>
-      <x:c r="D3" s="8" t="s"/>
-      <x:c r="E3" s="8" t="s"/>
-      <x:c r="F3" s="8" t="s"/>
-      <x:c r="G3" s="8" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H3" s="8" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I3" s="8" t="s"/>
-      <x:c r="J3" s="8" t="s"/>
-      <x:c r="K3" s="8" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L3" s="8" t="s"/>
-      <x:c r="M3" s="8" t="s"/>
-      <x:c r="N3" s="8" t="s"/>
-      <x:c r="O3" s="8" t="s"/>
+    <x:row r="3" spans="1:17" s="4" customFormat="1">
+      <x:c r="A3" s="4" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B3" s="4" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C3" s="4" t="s"/>
+      <x:c r="D3" s="4" t="s"/>
+      <x:c r="E3" s="4" t="s"/>
+      <x:c r="F3" s="4" t="s"/>
+      <x:c r="G3" s="4" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H3" s="4" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I3" s="4" t="s"/>
+      <x:c r="J3" s="4" t="s"/>
+      <x:c r="K3" s="4" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L3" s="4" t="s"/>
+      <x:c r="M3" s="4" t="s"/>
+      <x:c r="N3" s="4" t="s"/>
+      <x:c r="O3" s="4" t="s"/>
     </x:row>
-    <x:row r="4" spans="1:17" s="8" customFormat="1">
-      <x:c r="A4" s="8" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B4" s="8" t="s"/>
-      <x:c r="C4" s="8" t="s"/>
-      <x:c r="D4" s="8" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E4" s="8" t="s"/>
-      <x:c r="F4" s="8" t="s"/>
-      <x:c r="G4" s="8" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H4" s="8" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I4" s="8" t="s"/>
-      <x:c r="J4" s="8" t="s"/>
-      <x:c r="K4" s="8" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L4" s="8" t="s"/>
-      <x:c r="M4" s="8" t="s"/>
-      <x:c r="N4" s="8" t="s"/>
-      <x:c r="O4" s="8" t="s"/>
-      <x:c r="P4" s="8" t="s"/>
-      <x:c r="Q4" s="8" t="s"/>
+    <x:row r="4" spans="1:17" s="4" customFormat="1">
+      <x:c r="A4" s="4" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B4" s="4" t="s"/>
+      <x:c r="C4" s="4" t="s"/>
+      <x:c r="D4" s="4" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E4" s="4" t="s"/>
+      <x:c r="F4" s="4" t="s"/>
+      <x:c r="G4" s="4" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H4" s="4" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I4" s="4" t="s"/>
+      <x:c r="J4" s="4" t="s"/>
+      <x:c r="K4" s="4" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L4" s="4" t="s"/>
+      <x:c r="M4" s="4" t="s"/>
+      <x:c r="N4" s="4" t="s"/>
+      <x:c r="O4" s="4" t="s"/>
+      <x:c r="P4" s="4" t="s"/>
+      <x:c r="Q4" s="4" t="s"/>
     </x:row>
     <x:row r="5" spans="1:17">
-      <x:c r="A5" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B5" s="6" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C5" s="5" t="s"/>
-      <x:c r="D5" s="5" t="s"/>
-      <x:c r="E5" s="7" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F5" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G5" s="5" t="s"/>
-      <x:c r="I5" s="5" t="s">
+      <x:c r="A5" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s"/>
+      <x:c r="E5" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F5" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G5" s="1" t="s"/>
+      <x:c r="I5" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/InsertColumns.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/InsertColumns.xlsx
@@ -495,14 +495,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I3" s="4" t="s"/>
-      <x:c r="J3" s="4" t="s"/>
+      <x:c r="J3" s="1" t="s"/>
       <x:c r="K3" s="4" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="L3" s="4" t="s"/>
-      <x:c r="M3" s="4" t="s"/>
-      <x:c r="N3" s="4" t="s"/>
-      <x:c r="O3" s="4" t="s"/>
+      <x:c r="L3" s="1" t="s"/>
+      <x:c r="M3" s="1" t="s"/>
+      <x:c r="N3" s="1" t="s"/>
+      <x:c r="O3" s="1" t="s"/>
     </x:row>
     <x:row r="4" spans="1:17" s="4" customFormat="1">
       <x:c r="A4" s="4" t="s">
@@ -522,16 +522,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I4" s="4" t="s"/>
-      <x:c r="J4" s="4" t="s"/>
+      <x:c r="J4" s="1" t="s"/>
       <x:c r="K4" s="4" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="L4" s="4" t="s"/>
-      <x:c r="M4" s="4" t="s"/>
-      <x:c r="N4" s="4" t="s"/>
-      <x:c r="O4" s="4" t="s"/>
-      <x:c r="P4" s="4" t="s"/>
-      <x:c r="Q4" s="4" t="s"/>
+      <x:c r="L4" s="1" t="s"/>
+      <x:c r="M4" s="1" t="s"/>
+      <x:c r="N4" s="1" t="s"/>
+      <x:c r="O4" s="1" t="s"/>
+      <x:c r="P4" s="1" t="s"/>
+      <x:c r="Q4" s="1" t="s"/>
     </x:row>
     <x:row r="5" spans="1:17">
       <x:c r="A5" s="1" t="s">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/InsertColumns.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/InsertColumns.xlsx
@@ -556,14 +556,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/InsertColumns.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/InsertColumns.xlsx
@@ -495,14 +495,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I3" s="4" t="s"/>
-      <x:c r="J3" s="1" t="s"/>
+      <x:c r="J3" s="4" t="s"/>
       <x:c r="K3" s="4" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="L3" s="1" t="s"/>
-      <x:c r="M3" s="1" t="s"/>
-      <x:c r="N3" s="1" t="s"/>
-      <x:c r="O3" s="1" t="s"/>
+      <x:c r="L3" s="4" t="s"/>
+      <x:c r="M3" s="4" t="s"/>
+      <x:c r="N3" s="4" t="s"/>
+      <x:c r="O3" s="4" t="s"/>
     </x:row>
     <x:row r="4" spans="1:17" s="4" customFormat="1">
       <x:c r="A4" s="4" t="s">
@@ -522,16 +522,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I4" s="4" t="s"/>
-      <x:c r="J4" s="1" t="s"/>
+      <x:c r="J4" s="4" t="s"/>
       <x:c r="K4" s="4" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="L4" s="1" t="s"/>
-      <x:c r="M4" s="1" t="s"/>
-      <x:c r="N4" s="1" t="s"/>
-      <x:c r="O4" s="1" t="s"/>
-      <x:c r="P4" s="1" t="s"/>
-      <x:c r="Q4" s="1" t="s"/>
+      <x:c r="L4" s="4" t="s"/>
+      <x:c r="M4" s="4" t="s"/>
+      <x:c r="N4" s="4" t="s"/>
+      <x:c r="O4" s="4" t="s"/>
+      <x:c r="P4" s="4" t="s"/>
+      <x:c r="Q4" s="4" t="s"/>
     </x:row>
     <x:row r="5" spans="1:17">
       <x:c r="A5" s="1" t="s">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/InsertColumns.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/InsertColumns.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/InsertColumns.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Columns/InsertColumns.xlsx
@@ -87,40 +87,40 @@
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="5">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="5">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
